--- a/Code/Results/Cases/Case_3_191/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_191/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.64210692051069</v>
+        <v>20.66320133773953</v>
       </c>
       <c r="C2">
-        <v>17.9627706030009</v>
+        <v>13.14330772211953</v>
       </c>
       <c r="D2">
-        <v>2.324074638407348</v>
+        <v>6.290061924380096</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>64.03965936479837</v>
+        <v>55.68467830992864</v>
       </c>
       <c r="G2">
-        <v>2.07260117420532</v>
+        <v>3.718094583745748</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.307679332238317</v>
+        <v>11.53462253742862</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.79929793287838</v>
+        <v>20.30961541451096</v>
       </c>
       <c r="C3">
-        <v>16.59279617316807</v>
+        <v>12.82187629189725</v>
       </c>
       <c r="D3">
-        <v>2.176214692916283</v>
+        <v>6.344075758192185</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>60.40196539151106</v>
+        <v>54.74634869498082</v>
       </c>
       <c r="G3">
-        <v>2.08929270290123</v>
+        <v>3.723363054668166</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.025676300969177</v>
+        <v>11.5279750397931</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.62411597091315</v>
+        <v>20.09857968690556</v>
       </c>
       <c r="C4">
-        <v>15.71959034222028</v>
+        <v>12.62734140610034</v>
       </c>
       <c r="D4">
-        <v>2.085073829377921</v>
+        <v>6.378993313946221</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>58.14063388385377</v>
+        <v>54.1736638812817</v>
       </c>
       <c r="G4">
-        <v>2.099641184075036</v>
+        <v>3.726757141330943</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.857788747586321</v>
+        <v>11.52653860730808</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.13387363015736</v>
+        <v>20.01423958151413</v>
       </c>
       <c r="C5">
-        <v>15.35535153396651</v>
+        <v>12.54892781398593</v>
       </c>
       <c r="D5">
-        <v>2.047755323379294</v>
+        <v>6.393664511047524</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>57.21211233956501</v>
+        <v>53.94139373803116</v>
       </c>
       <c r="G5">
-        <v>2.103891473138503</v>
+        <v>3.728180492328934</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.790663198995468</v>
+        <v>11.52661723180128</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.0517750465485</v>
+        <v>20.00033896975118</v>
       </c>
       <c r="C6">
-        <v>15.29435363465977</v>
+        <v>12.53596372728102</v>
       </c>
       <c r="D6">
-        <v>2.041545488487212</v>
+        <v>6.396127385646406</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>57.0575132633119</v>
+        <v>53.90289895017241</v>
       </c>
       <c r="G6">
-        <v>2.104599453831459</v>
+        <v>3.728419274361172</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.779594254046527</v>
+        <v>11.52667034860521</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.61755074730926</v>
+        <v>20.09743535758361</v>
       </c>
       <c r="C7">
-        <v>15.71471251625301</v>
+        <v>12.62628020679212</v>
       </c>
       <c r="D7">
-        <v>2.084571368270293</v>
+        <v>6.379189383464745</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>58.12813973280281</v>
+        <v>54.17052662701489</v>
       </c>
       <c r="G7">
-        <v>2.099698360545102</v>
+        <v>3.726776173978275</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.856878279641869</v>
+        <v>11.52653698103186</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.01553091720669</v>
+        <v>20.54010628634994</v>
       </c>
       <c r="C8">
-        <v>17.49682597187321</v>
+        <v>13.03198137613031</v>
       </c>
       <c r="D8">
-        <v>2.27310882654921</v>
+        <v>6.308322829995163</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.79103879759943</v>
+        <v>55.36056691581162</v>
       </c>
       <c r="G8">
-        <v>2.078340901958089</v>
+        <v>3.719878223307663</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.209326910481334</v>
+        <v>11.53178088827188</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.39238771567927</v>
+        <v>21.45036472302838</v>
       </c>
       <c r="C9">
-        <v>20.75645556822875</v>
+        <v>13.84351431699975</v>
       </c>
       <c r="D9">
-        <v>2.644758059360161</v>
+        <v>6.183206894766672</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.73281511418766</v>
+        <v>57.71130300559327</v>
       </c>
       <c r="G9">
-        <v>2.036821754533383</v>
+        <v>3.707605819909949</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.944853422386281</v>
+        <v>11.56308947925237</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.44744176708454</v>
+        <v>22.13682572235752</v>
       </c>
       <c r="C10">
-        <v>23.04121813362867</v>
+        <v>14.44116687294514</v>
       </c>
       <c r="D10">
-        <v>2.927066825466098</v>
+        <v>6.099655659630089</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.23281902262627</v>
+        <v>59.4351234678487</v>
       </c>
       <c r="G10">
-        <v>2.005812348936566</v>
+        <v>3.699341515623832</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.518272517352122</v>
+        <v>11.59893887745762</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.81383656406769</v>
+        <v>22.45128466010679</v>
       </c>
       <c r="C11">
-        <v>24.06656539068191</v>
+        <v>14.71173917510376</v>
       </c>
       <c r="D11">
-        <v>3.059881472628596</v>
+        <v>6.063449206169252</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.19613399843718</v>
+        <v>60.21581447316764</v>
       </c>
       <c r="G11">
-        <v>1.991384266212427</v>
+        <v>3.695742508613618</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.788538224003297</v>
+        <v>11.61803533000121</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.32915086784494</v>
+        <v>22.57054149884845</v>
       </c>
       <c r="C12">
-        <v>24.45389954847866</v>
+        <v>14.81388654878078</v>
       </c>
       <c r="D12">
-        <v>3.111065686970456</v>
+        <v>6.049996809653449</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.32181231432718</v>
+        <v>60.51071480823885</v>
       </c>
       <c r="G12">
-        <v>1.985851548679445</v>
+        <v>3.694402521627345</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.892510473355804</v>
+        <v>11.62566668110022</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.21823922900835</v>
+        <v>22.54485159835963</v>
       </c>
       <c r="C13">
-        <v>24.37050217188792</v>
+        <v>14.79190307843675</v>
       </c>
       <c r="D13">
-        <v>3.099997834471366</v>
+        <v>6.05288255292436</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>82.07916951866464</v>
+        <v>60.44723878938277</v>
       </c>
       <c r="G13">
-        <v>1.987046616932968</v>
+        <v>3.694690097383893</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.870040375124614</v>
+        <v>11.62400536645519</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.85626578149289</v>
+        <v>22.46109318494256</v>
       </c>
       <c r="C14">
-        <v>24.09844340568413</v>
+        <v>14.7201498483498</v>
       </c>
       <c r="D14">
-        <v>3.064072874054188</v>
+        <v>6.062337299226948</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.2886554487789</v>
+        <v>60.2400920227613</v>
       </c>
       <c r="G14">
-        <v>1.990930622269859</v>
+        <v>3.695631809676757</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.797057539303706</v>
+        <v>11.61865515782564</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.63431425319113</v>
+        <v>22.40980797387185</v>
       </c>
       <c r="C15">
-        <v>23.93171310725763</v>
+        <v>14.67615466828879</v>
       </c>
       <c r="D15">
-        <v>3.042192503137538</v>
+        <v>6.068162206095689</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>80.80499473370969</v>
+        <v>60.11310686547871</v>
       </c>
       <c r="G15">
-        <v>1.99329991408762</v>
+        <v>3.696211609320422</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.752575252745855</v>
+        <v>11.61543004688422</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.35777455173352</v>
+        <v>22.11630730712486</v>
       </c>
       <c r="C16">
-        <v>22.97401327652148</v>
+        <v>14.42344721842276</v>
       </c>
       <c r="D16">
-        <v>2.918496153534663</v>
+        <v>6.102058012204572</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.03949382460694</v>
+        <v>59.38401356436166</v>
       </c>
       <c r="G16">
-        <v>2.006746951435458</v>
+        <v>3.699579931450255</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.50082092284465</v>
+        <v>11.59774691042095</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.56947275424424</v>
+        <v>21.93671533900496</v>
       </c>
       <c r="C17">
-        <v>22.38359359361111</v>
+        <v>14.26799382898495</v>
       </c>
       <c r="D17">
-        <v>2.843902455943983</v>
+        <v>6.123312757690691</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.34620872232884</v>
+        <v>58.93568026294059</v>
       </c>
       <c r="G17">
-        <v>2.014899227672545</v>
+        <v>3.701687248022912</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.348957431512051</v>
+        <v>11.58761245149184</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.11377302559883</v>
+        <v>21.83363226313837</v>
       </c>
       <c r="C18">
-        <v>22.0426047303642</v>
+        <v>14.17846545239699</v>
       </c>
       <c r="D18">
-        <v>2.801392814160548</v>
+        <v>6.135707529459411</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.37268287377036</v>
+        <v>58.67749614149249</v>
       </c>
       <c r="G18">
-        <v>2.019559555025801</v>
+        <v>3.702914436406917</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.262474692947126</v>
+        <v>11.58204592250648</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.9590543880585</v>
+        <v>21.79877099234557</v>
       </c>
       <c r="C19">
-        <v>21.92688355859459</v>
+        <v>14.14813677045615</v>
       </c>
       <c r="D19">
-        <v>2.787060659239391</v>
+        <v>6.139933342663905</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.04306681603993</v>
+        <v>58.59003252164158</v>
       </c>
       <c r="G19">
-        <v>2.021133153546034</v>
+        <v>3.703332543388482</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.233334751761745</v>
+        <v>11.58020630805476</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.65361766575129</v>
+        <v>21.95581211778396</v>
       </c>
       <c r="C20">
-        <v>22.44658221331927</v>
+        <v>14.2845550170636</v>
       </c>
       <c r="D20">
-        <v>2.851800556084738</v>
+        <v>6.12103260667541</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.52640332105788</v>
+        <v>58.98344036452578</v>
       </c>
       <c r="G20">
-        <v>2.014034517316235</v>
+        <v>3.701461357584603</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.365032315269803</v>
+        <v>11.58866411579395</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.96263188723523</v>
+        <v>22.48569128826786</v>
       </c>
       <c r="C21">
-        <v>24.17836937375639</v>
+        <v>14.7412349446236</v>
       </c>
       <c r="D21">
-        <v>3.074598360811955</v>
+        <v>6.059553209862503</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.52072769074071</v>
+        <v>60.30095765758227</v>
       </c>
       <c r="G21">
-        <v>1.989791881519101</v>
+        <v>3.695354586589036</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.8184475164005</v>
+        <v>11.62021579979582</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.46023636416455</v>
+        <v>22.83297643632115</v>
       </c>
       <c r="C22">
-        <v>25.30540634531938</v>
+        <v>15.03782866591265</v>
       </c>
       <c r="D22">
-        <v>3.225569645217385</v>
+        <v>6.02087752969646</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>84.80727460198094</v>
+        <v>61.15767400349593</v>
       </c>
       <c r="G22">
-        <v>1.973530034620049</v>
+        <v>3.691496722725625</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.12447350811692</v>
+        <v>11.64316703315904</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.66148581452026</v>
+        <v>22.64757790640358</v>
       </c>
       <c r="C23">
-        <v>24.70389510964625</v>
+        <v>14.87974139045595</v>
       </c>
       <c r="D23">
-        <v>3.144399420049231</v>
+        <v>6.041382050027968</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>83.05003426770479</v>
+        <v>60.70090055273016</v>
       </c>
       <c r="G23">
-        <v>1.982256632624077</v>
+        <v>3.69354360856121</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.960138104083699</v>
+        <v>11.63070474331752</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.61558361119597</v>
+        <v>21.94717793436622</v>
       </c>
       <c r="C24">
-        <v>22.41810995943187</v>
+        <v>14.2770681807172</v>
       </c>
       <c r="D24">
-        <v>2.848228674770341</v>
+        <v>6.122062917377407</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.44493763355197</v>
+        <v>58.96184934860407</v>
       </c>
       <c r="G24">
-        <v>2.014425533839904</v>
+        <v>3.7015634338469</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.357762308175072</v>
+        <v>11.58818784873925</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.23978373085503</v>
+        <v>21.20043134949723</v>
       </c>
       <c r="C25">
-        <v>19.896782890028</v>
+        <v>13.62314695714889</v>
       </c>
       <c r="D25">
-        <v>2.54327005622567</v>
+        <v>6.21557884567738</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.33147669245406</v>
+        <v>57.07496484200021</v>
       </c>
       <c r="G25">
-        <v>2.04808180498129</v>
+        <v>3.710792824378815</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.740644671016955</v>
+        <v>11.55236411037291</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_191/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_191/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.66320133773953</v>
+        <v>24.64210692051069</v>
       </c>
       <c r="C2">
-        <v>13.14330772211953</v>
+        <v>17.96277060300088</v>
       </c>
       <c r="D2">
-        <v>6.290061924380096</v>
+        <v>2.324074638407494</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>55.68467830992864</v>
+        <v>64.03965936479845</v>
       </c>
       <c r="G2">
-        <v>3.718094583745748</v>
+        <v>2.072601174205186</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.53462253742862</v>
+        <v>8.307679332238308</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.30961541451096</v>
+        <v>22.79929793287829</v>
       </c>
       <c r="C3">
-        <v>12.82187629189725</v>
+        <v>16.59279617316828</v>
       </c>
       <c r="D3">
-        <v>6.344075758192185</v>
+        <v>2.17621469291625</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>54.74634869498082</v>
+        <v>60.40196539151096</v>
       </c>
       <c r="G3">
-        <v>3.723363054668166</v>
+        <v>2.089292702901627</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.5279750397931</v>
+        <v>8.025676300969177</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.09857968690556</v>
+        <v>21.62411597091312</v>
       </c>
       <c r="C4">
-        <v>12.62734140610034</v>
+        <v>15.71959034222028</v>
       </c>
       <c r="D4">
-        <v>6.378993313946221</v>
+        <v>2.085073829377966</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>54.1736638812817</v>
+        <v>58.14063388385371</v>
       </c>
       <c r="G4">
-        <v>3.726757141330943</v>
+        <v>2.099641184075036</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.52653860730808</v>
+        <v>7.857788747586316</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.01423958151413</v>
+        <v>21.13387363015734</v>
       </c>
       <c r="C5">
-        <v>12.54892781398593</v>
+        <v>15.35535153396658</v>
       </c>
       <c r="D5">
-        <v>6.393664511047524</v>
+        <v>2.047755323379568</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>53.94139373803116</v>
+        <v>57.21211233956514</v>
       </c>
       <c r="G5">
-        <v>3.728180492328934</v>
+        <v>2.103891473138235</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.52661723180128</v>
+        <v>7.790663198995455</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.00033896975118</v>
+        <v>21.05177504654839</v>
       </c>
       <c r="C6">
-        <v>12.53596372728102</v>
+        <v>15.2943536346598</v>
       </c>
       <c r="D6">
-        <v>6.396127385646406</v>
+        <v>2.041545488487257</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>53.90289895017241</v>
+        <v>57.05751326331195</v>
       </c>
       <c r="G6">
-        <v>3.728419274361172</v>
+        <v>2.104599453831591</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.52667034860521</v>
+        <v>7.779594254046529</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.09743535758361</v>
+        <v>21.61755074730918</v>
       </c>
       <c r="C7">
-        <v>12.62628020679212</v>
+        <v>15.71471251625305</v>
       </c>
       <c r="D7">
-        <v>6.379189383464745</v>
+        <v>2.084571368270377</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>54.17052662701489</v>
+        <v>58.12813973280292</v>
       </c>
       <c r="G7">
-        <v>3.726776173978275</v>
+        <v>2.099698360544964</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.52653698103186</v>
+        <v>7.856878279641884</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.54010628634994</v>
+        <v>24.01553091720675</v>
       </c>
       <c r="C8">
-        <v>13.03198137613031</v>
+        <v>17.49682597187311</v>
       </c>
       <c r="D8">
-        <v>6.308322829995163</v>
+        <v>2.273108826549336</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>55.36056691581162</v>
+        <v>62.79103879759958</v>
       </c>
       <c r="G8">
-        <v>3.719878223307663</v>
+        <v>2.07834090195822</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.53178088827188</v>
+        <v>8.209326910481284</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.45036472302838</v>
+        <v>28.39238771567904</v>
       </c>
       <c r="C9">
-        <v>13.84351431699975</v>
+        <v>20.75645556822864</v>
       </c>
       <c r="D9">
-        <v>6.183206894766672</v>
+        <v>2.644758059360407</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>57.71130300559327</v>
+        <v>71.73281511418701</v>
       </c>
       <c r="G9">
-        <v>3.707605819909949</v>
+        <v>2.036821754533648</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.56308947925237</v>
+        <v>8.944853422386277</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.13682572235752</v>
+        <v>31.44744176708462</v>
       </c>
       <c r="C10">
-        <v>14.44116687294514</v>
+        <v>23.04121813362874</v>
       </c>
       <c r="D10">
-        <v>6.099655659630089</v>
+        <v>2.927066825466075</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>59.4351234678487</v>
+        <v>78.23281902262624</v>
       </c>
       <c r="G10">
-        <v>3.699341515623832</v>
+        <v>2.005812348936566</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.59893887745762</v>
+        <v>9.518272517352139</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.45128466010679</v>
+        <v>32.81383656406753</v>
       </c>
       <c r="C11">
-        <v>14.71173917510376</v>
+        <v>24.06656539068192</v>
       </c>
       <c r="D11">
-        <v>6.063449206169252</v>
+        <v>3.05988147262869</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>60.21581447316764</v>
+        <v>81.19613399843726</v>
       </c>
       <c r="G11">
-        <v>3.695742508613618</v>
+        <v>1.991384266212431</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.61803533000121</v>
+        <v>9.788538224003315</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.57054149884845</v>
+        <v>33.32915086784507</v>
       </c>
       <c r="C12">
-        <v>14.81388654878078</v>
+        <v>24.45389954847864</v>
       </c>
       <c r="D12">
-        <v>6.049996809653449</v>
+        <v>3.111065686970549</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>60.51071480823885</v>
+        <v>82.32181231432747</v>
       </c>
       <c r="G12">
-        <v>3.694402521627345</v>
+        <v>1.985851548679464</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.62566668110022</v>
+        <v>9.892510473355804</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.54485159835963</v>
+        <v>33.21823922900836</v>
       </c>
       <c r="C13">
-        <v>14.79190307843675</v>
+        <v>24.37050217188781</v>
       </c>
       <c r="D13">
-        <v>6.05288255292436</v>
+        <v>3.099997834471473</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>60.44723878938277</v>
+        <v>82.07916951866505</v>
       </c>
       <c r="G13">
-        <v>3.694690097383893</v>
+        <v>1.987046616932852</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.62400536645519</v>
+        <v>9.870040375124601</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.46109318494256</v>
+        <v>32.85626578149279</v>
       </c>
       <c r="C14">
-        <v>14.7201498483498</v>
+        <v>24.09844340568392</v>
       </c>
       <c r="D14">
-        <v>6.062337299226948</v>
+        <v>3.064072874054057</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>60.2400920227613</v>
+        <v>81.28865544877864</v>
       </c>
       <c r="G14">
-        <v>3.695631809676757</v>
+        <v>1.990930622269859</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.61865515782564</v>
+        <v>9.797057539303673</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.40980797387185</v>
+        <v>32.63431425319121</v>
       </c>
       <c r="C15">
-        <v>14.67615466828879</v>
+        <v>23.93171310725767</v>
       </c>
       <c r="D15">
-        <v>6.068162206095689</v>
+        <v>3.042192503137644</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>60.11310686547871</v>
+        <v>80.80499473370995</v>
       </c>
       <c r="G15">
-        <v>3.696211609320422</v>
+        <v>1.993299914087758</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.61543004688422</v>
+        <v>9.752575252745881</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.11630730712486</v>
+        <v>31.35777455173357</v>
       </c>
       <c r="C16">
-        <v>14.42344721842276</v>
+        <v>22.97401327652138</v>
       </c>
       <c r="D16">
-        <v>6.102058012204572</v>
+        <v>2.918496153534698</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>59.38401356436166</v>
+        <v>78.03949382460721</v>
       </c>
       <c r="G16">
-        <v>3.699579931450255</v>
+        <v>2.006746951435597</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.59774691042095</v>
+        <v>9.50082092284463</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.93671533900496</v>
+        <v>30.56947275424438</v>
       </c>
       <c r="C17">
-        <v>14.26799382898495</v>
+        <v>22.38359359361138</v>
       </c>
       <c r="D17">
-        <v>6.123312757690691</v>
+        <v>2.843902455944269</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>58.93568026294059</v>
+        <v>76.34620872232945</v>
       </c>
       <c r="G17">
-        <v>3.701687248022912</v>
+        <v>2.014899227672394</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.58761245149184</v>
+        <v>9.348957431512053</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.83363226313837</v>
+        <v>30.11377302559883</v>
       </c>
       <c r="C18">
-        <v>14.17846545239699</v>
+        <v>22.04260473036419</v>
       </c>
       <c r="D18">
-        <v>6.135707529459411</v>
+        <v>2.80139281416056</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>58.67749614149249</v>
+        <v>75.37268287377057</v>
       </c>
       <c r="G18">
-        <v>3.702914436406917</v>
+        <v>2.019559555025936</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.58204592250648</v>
+        <v>9.26247469294711</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.79877099234557</v>
+        <v>29.95905438805855</v>
       </c>
       <c r="C19">
-        <v>14.14813677045615</v>
+        <v>21.92688355859476</v>
       </c>
       <c r="D19">
-        <v>6.139933342663905</v>
+        <v>2.787060659239405</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>58.59003252164158</v>
+        <v>75.0430668160397</v>
       </c>
       <c r="G19">
-        <v>3.703332543388482</v>
+        <v>2.021133153546034</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.58020630805476</v>
+        <v>9.233334751761717</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.95581211778396</v>
+        <v>30.65361766575122</v>
       </c>
       <c r="C20">
-        <v>14.2845550170636</v>
+        <v>22.44658221331916</v>
       </c>
       <c r="D20">
-        <v>6.12103260667541</v>
+        <v>2.851800556084763</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>58.98344036452578</v>
+        <v>76.52640332105744</v>
       </c>
       <c r="G20">
-        <v>3.701461357584603</v>
+        <v>2.014034517316496</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.58866411579395</v>
+        <v>9.365032315269799</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.48569128826786</v>
+        <v>32.96263188723558</v>
       </c>
       <c r="C21">
-        <v>14.7412349446236</v>
+        <v>24.17836937375645</v>
       </c>
       <c r="D21">
-        <v>6.059553209862503</v>
+        <v>3.074598360812266</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>60.30095765758227</v>
+        <v>81.52072769074184</v>
       </c>
       <c r="G21">
-        <v>3.695354586589036</v>
+        <v>1.989791881519101</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.62021579979582</v>
+        <v>9.818447516400553</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.83297643632115</v>
+        <v>34.46023636416444</v>
       </c>
       <c r="C22">
-        <v>15.03782866591265</v>
+        <v>25.30540634531934</v>
       </c>
       <c r="D22">
-        <v>6.02087752969646</v>
+        <v>3.225569645217604</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>61.15767400349593</v>
+        <v>84.80727460198143</v>
       </c>
       <c r="G22">
-        <v>3.691496722725625</v>
+        <v>1.973530034619925</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.64316703315904</v>
+        <v>10.12447350811692</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.64757790640358</v>
+        <v>33.66148581452029</v>
       </c>
       <c r="C23">
-        <v>14.87974139045595</v>
+        <v>24.70389510964627</v>
       </c>
       <c r="D23">
-        <v>6.041382050027968</v>
+        <v>3.144399420049122</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>60.70090055273016</v>
+        <v>83.05003426770466</v>
       </c>
       <c r="G23">
-        <v>3.69354360856121</v>
+        <v>1.982256632623814</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.63070474331752</v>
+        <v>9.960138104083672</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.94717793436622</v>
+        <v>30.61558361119592</v>
       </c>
       <c r="C24">
-        <v>14.2770681807172</v>
+        <v>22.41810995943177</v>
       </c>
       <c r="D24">
-        <v>6.122062917377407</v>
+        <v>2.848228674770282</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>58.96184934860407</v>
+        <v>76.44493763355146</v>
       </c>
       <c r="G24">
-        <v>3.7015634338469</v>
+        <v>2.014425533839765</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.58818784873925</v>
+        <v>9.357762308175092</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.20043134949723</v>
+        <v>27.23978373085517</v>
       </c>
       <c r="C25">
-        <v>13.62314695714889</v>
+        <v>19.89678289002803</v>
       </c>
       <c r="D25">
-        <v>6.21557884567738</v>
+        <v>2.543270056225597</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>57.07496484200021</v>
+        <v>69.3314766924541</v>
       </c>
       <c r="G25">
-        <v>3.710792824378815</v>
+        <v>2.048081804981309</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.55236411037291</v>
+        <v>8.740644671016943</v>
       </c>
       <c r="K25">
         <v>0</v>
